--- a/Trabalho1/tabelaFinalv2.xlsx
+++ b/Trabalho1/tabelaFinalv2.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panca\source\repos\PLN\Trabalho1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panca\source\repos\GithubFurb\PLN\Trabalho1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FFC893-98D5-4B86-883E-1E98924D2437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC96B6F-617F-4D7D-806D-A59CC2B28B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabelaFinalv2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -260,6 +273,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -698,8 +714,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -742,20 +869,51 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -788,6 +946,7 @@
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentagem" xfId="42" builtinId="5"/>
     <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -799,7 +958,186 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -810,6 +1148,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9EF7536A-BFD2-467D-956A-5BBA854D92D6}" name="Tabela2" displayName="Tabela2" ref="A1:F67" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:F67" xr:uid="{9EF7536A-BFD2-467D-956A-5BBA854D92D6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{47F8E223-941E-4C3B-8E91-0C2DC471383C}" name="Número" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{3DE1B0ED-A916-4D76-9608-57FBBF6E71E5}" name="Matéria" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DA26545D-F12D-4BE7-9A85-A86C953670DC}" name="Resultado Count" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{3349DAF9-E3DE-4C5B-8413-150CB5E12AED}" name="Resultado Jaccard" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D0CD8C77-75C6-427C-9F63-64B49564F5CF}" name="Resultado TF-IDF" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{29EBFB14-4079-4560-8F84-935F58ED3548}" name="Categoria Real" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,1362 +1462,2193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="58" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="6" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <f>IF(C2=$F2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>IF(D2=$F2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>IF(E2=$F2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="H3">
+        <f>IF(C3=$F3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(D3=$F3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IF(E3=$F3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4">
+        <f>IF(C4=$F4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>IF(D4=$F4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IF(E4=$F4,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="H5">
+        <f>IF(C5=$F5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF(D5=$F5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>IF(E5=$F5,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6">
+        <f>IF(C6=$F6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>IF(D6=$F6,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>IF(E6=$F6,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7">
+        <f>IF(C7=$F7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>IF(D7=$F7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>IF(E7=$F7,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8">
+        <f>IF(C8=$F8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>IF(D8=$F8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>IF(E8=$F8,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <f>IF(C9=$F9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>IF(D9=$F9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>IF(E9=$F9,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="H10">
+        <f>IF(C10=$F10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>IF(D10=$F10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>IF(E10=$F10,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <f>IF(C11=$F11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>IF(D11=$F11,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f>IF(E11=$F11,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="H12">
+        <f>IF(C12=$F12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>IF(D12=$F12,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>IF(E12=$F12,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13">
+        <f>IF(C13=$F13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>IF(D13=$F13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>IF(E13=$F13,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14">
+        <f>IF(C14=$F14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>IF(D14=$F14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>IF(E14=$F14,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15">
+        <f>IF(C15=$F15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>IF(D15=$F15,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>IF(E15=$F15,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <f>IF(C16=$F16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f>IF(D16=$F16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f>IF(E16=$F16,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <f>IF(C17=$F17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>IF(D17=$F17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>IF(E17=$F17,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18">
+        <f>IF(C18=$F18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f>IF(D18=$F18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>IF(E18=$F18,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <f>IF(C19=$F19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>IF(D19=$F19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>IF(E19=$F19,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="H20">
+        <f>IF(C20=$F20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(D20=$F20,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>IF(E20=$F20,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="H21">
+        <f>IF(C21=$F21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f>IF(D21=$F21,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>IF(E21=$F21,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="F22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <f>IF(C22=$F22,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>IF(D22=$F22,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>IF(E22=$F22,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="H23">
+        <f>IF(C23=$F23,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>IF(D23=$F23,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>IF(E23=$F23,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24">
+        <f>IF(C24=$F24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>IF(D24=$F24,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>IF(E24=$F24,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="H25">
+        <f>IF(C25=$F25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f>IF(D25=$F25,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>IF(E25=$F25,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="H26">
+        <f>IF(C26=$F26,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>IF(D26=$F26,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>IF(E26=$F26,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="H27">
+        <f>IF(C27=$F27,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f>IF(D27=$F27,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>IF(E27=$F27,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28">
+        <f>IF(C28=$F28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f>IF(D28=$F28,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>IF(E28=$F28,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <f>IF(C29=$F29,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>IF(D29=$F29,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>IF(E29=$F29,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="H30">
+        <f>IF(C30=$F30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f>IF(D30=$F30,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f>IF(E30=$F30,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31">
+        <f>IF(C31=$F31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>IF(D31=$F31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>IF(E31=$F31,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="H32">
+        <f>IF(C32=$F32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f>IF(D32=$F32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f>IF(E32=$F32,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="H33">
+        <f>IF(C33=$F33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f>IF(D33=$F33,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>IF(E33=$F33,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="H34">
+        <f>IF(C34=$F34,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>IF(D34=$F34,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f>IF(E34=$F34,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35">
+        <f>IF(C35=$F35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f>IF(D35=$F35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f>IF(E35=$F35,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36">
+        <f>IF(C36=$F36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f>IF(D36=$F36,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f>IF(E36=$F36,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="F37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37">
+        <f>IF(C37=$F37,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>IF(D37=$F37,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>IF(E37=$F37,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="H38">
+        <f>IF(C38=$F38,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f>IF(D38=$F38,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f>IF(E38=$F38,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39">
+        <f>IF(C39=$F39,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f>IF(D39=$F39,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f>IF(E39=$F39,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40">
+        <f>IF(C40=$F40,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f>IF(D40=$F40,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f>IF(E40=$F40,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="F41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41">
+        <f>IF(C41=$F41,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f>IF(D41=$F41,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f>IF(E41=$F41,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42">
+        <f>IF(C42=$F42,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f>IF(D42=$F42,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f>IF(E42=$F42,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43">
+        <f>IF(C43=$F43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f>IF(D43=$F43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f>IF(E43=$F43,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="H44">
+        <f>IF(C44=$F44,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f>IF(D44=$F44,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f>IF(E44=$F44,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="C45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45">
+        <f>IF(C45=$F45,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>IF(D45=$F45,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>IF(E45=$F45,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="H46">
+        <f>IF(C46=$F46,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f>IF(D46=$F46,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f>IF(E46=$F46,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47">
+        <f>IF(C47=$F47,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>IF(D47=$F47,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>IF(E47=$F47,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48">
+        <f>IF(C48=$F48,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f>IF(D48=$F48,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f>IF(E48=$F48,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="H49">
+        <f>IF(C49=$F49,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f>IF(D49=$F49,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f>IF(E49=$F49,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="C50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="H50">
+        <f>IF(C50=$F50,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>IF(D50=$F50,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>IF(E50=$F50,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="H51">
+        <f>IF(C51=$F51,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>IF(D51=$F51,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>IF(E51=$F51,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="H52">
+        <f>IF(C52=$F52,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f>IF(D52=$F52,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f>IF(E52=$F52,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="C53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53">
+        <f>IF(C53=$F53,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f>IF(D53=$F53,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f>IF(E53=$F53,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="H54">
+        <f>IF(C54=$F54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f>IF(D54=$F54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f>IF(E54=$F54,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55">
+        <f>IF(C55=$F55,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f>IF(D55=$F55,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <f>IF(E55=$F55,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56">
+        <f>IF(C56=$F56,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f>IF(D56=$F56,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f>IF(E56=$F56,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="F57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57">
+        <f>IF(C57=$F57,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f>IF(D57=$F57,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f>IF(E57=$F57,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="H58">
+        <f>IF(C58=$F58,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f>IF(D58=$F58,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f>IF(E58=$F58,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="C59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59">
+        <f>IF(C59=$F59,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f>IF(D59=$F59,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>IF(E59=$F59,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="F60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60">
+        <f>IF(C60=$F60,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>IF(D60=$F60,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>IF(E60=$F60,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="C61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H61">
+        <f>IF(C61=$F61,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f>IF(D61=$F61,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f>IF(E61=$F61,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="H62">
+        <f>IF(C62=$F62,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f>IF(D62=$F62,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>IF(E62=$F62,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63">
+        <f>IF(C63=$F63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f>IF(D63=$F63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f>IF(E63=$F63,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="C64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64">
+        <f>IF(C64=$F64,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f>IF(D64=$F64,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <f>IF(E64=$F64,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="C65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65">
+        <f>IF(C65=$F65,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f>IF(D65=$F65,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f>IF(E65=$F65,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66">
+        <f>IF(C66=$F66,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f>IF(D66=$F66,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f>IF(E66=$F66,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="C67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67">
+        <f>IF(C67=$F67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f>IF(D67=$F67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f>IF(E67=$F67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="12">
+        <f t="shared" ref="C68:D68" si="0">SUM(H2:H67)</f>
+        <v>51</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E68" s="12">
+        <f>SUM(J2:J67)</f>
+        <v>46</v>
+      </c>
+      <c r="F68" s="12">
+        <f>COUNTA(F2:F67)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="13">
+        <f t="shared" ref="C69:D69" si="1">C68/$F$68</f>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="D69" s="13">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="E69" s="13">
+        <f>E68/$F$68</f>
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="F69" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>